--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13455" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11625" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -131,14 +131,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="h:mm"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="h:mm"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -177,8 +177,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -186,7 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,28 +232,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -231,29 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,11 +253,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,6 +279,30 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,30 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -366,187 +366,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +685,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -720,6 +729,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -737,8 +761,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -752,167 +778,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -934,7 +934,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -944,20 +944,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -981,7 +981,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,10 +1001,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1468,8 +1468,8 @@
   </sheetPr>
   <dimension ref="B1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2486,10 +2486,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="18">
-        <f>SUM(D11:D31)</f>
-        <v>4.95833333333284</v>
-      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
